--- a/Final_Data_Base_Table.xlsx
+++ b/Final_Data_Base_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TatvaSoft\trening\project of HTML, CSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B632BCB-E13D-43E4-AB0D-830CB607FF49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986F14FE-8D53-4360-99D5-B180CDA37C99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2861B40-127B-45D5-9C42-236D147C949B}"/>
+    <workbookView xWindow="10944" yWindow="3396" windowWidth="10728" windowHeight="8964" xr2:uid="{F2861B40-127B-45D5-9C42-236D147C949B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -183,6 +183,12 @@
     <t>Published_Date</t>
   </si>
   <si>
+    <t>Ratings</t>
+  </si>
+  <si>
+    <t>Reviews</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -204,14 +210,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> :- Downloads_Note</t>
-    </r>
-  </si>
-  <si>
-    <t>Ratings</t>
-  </si>
-  <si>
-    <t>Reviews</t>
+      <t xml:space="preserve"> :- Report_Spam</t>
+    </r>
+  </si>
+  <si>
+    <t>Remarks</t>
   </si>
   <si>
     <r>
@@ -235,11 +238,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> :- Report_Spam</t>
-    </r>
-  </si>
-  <si>
-    <t>Remarks</t>
+      <t xml:space="preserve"> :- Category</t>
+    </r>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
   <si>
     <r>
@@ -263,7 +266,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> :- Rejected_Note</t>
+      <t xml:space="preserve"> :- Type</t>
     </r>
   </si>
   <si>
@@ -288,11 +291,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> :- Category</t>
-    </r>
-  </si>
-  <si>
-    <t>Name</t>
+      <t xml:space="preserve"> :- Country</t>
+    </r>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Secondary_Email</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
   <si>
     <r>
@@ -316,7 +325,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> :- Type</t>
+      <t xml:space="preserve"> :- User_Details</t>
     </r>
   </si>
   <si>
@@ -341,17 +350,56 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> :- Country</t>
-    </r>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Secondary_Email</t>
-  </si>
-  <si>
-    <t>date</t>
+      <t xml:space="preserve"> :- Notes</t>
+    </r>
+  </si>
+  <si>
+    <t>Unique value</t>
+  </si>
+  <si>
+    <t>One need to do atleast one static entry for this table for Super Admin user - Other entries will be created via member signup or via super admin from add administrator screen.</t>
+  </si>
+  <si>
+    <t>Entries can be Member, Admin or  Super Admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description </t>
+  </si>
+  <si>
+    <t>What this role usage is one can write here.</t>
+  </si>
+  <si>
+    <t>CreatedDate</t>
+  </si>
+  <si>
+    <t>Date and time when system has created a record.</t>
+  </si>
+  <si>
+    <t>CreatedBy</t>
+  </si>
+  <si>
+    <t>UserID who has created this record. Super Admin ID you can insert static.</t>
+  </si>
+  <si>
+    <t>ModifiedDate</t>
+  </si>
+  <si>
+    <t>Date and time when system has updated a record.</t>
+  </si>
+  <si>
+    <t>ModifiedBy</t>
+  </si>
+  <si>
+    <t>UserID who has updated this record. Super Admin ID you can insert static.</t>
+  </si>
+  <si>
+    <t>IsActive</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>Required information , Default set to true</t>
   </si>
   <si>
     <r>
@@ -375,8 +423,106 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> :- User_Details</t>
-    </r>
+      <t>: - User_Roles</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>master table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Over this table one can do three static entries i.e. for defining roles  :  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Member, Admin, Super Admin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as we do not have manage roles screen for scope entries can be 
+inserted via backend script.</t>
+    </r>
+  </si>
+  <si>
+    <t>Role_Id</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FOREIGN KEY </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>User_Roles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> table.</t>
+    </r>
+  </si>
+  <si>
+    <t>Required information</t>
+  </si>
+  <si>
+    <t>Required information || Unique value</t>
+  </si>
+  <si>
+    <t>IsEmailVerified</t>
+  </si>
+  <si>
+    <t>Required information || Default set to false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Image </t>
+  </si>
+  <si>
+    <t>Required information || Default set to true</t>
+  </si>
+  <si>
+    <t>User Phone Number</t>
   </si>
   <si>
     <r>
@@ -400,56 +546,363 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> :- Notes</t>
-    </r>
-  </si>
-  <si>
-    <t>Unique value</t>
-  </si>
-  <si>
-    <t>One need to do atleast one static entry for this table for Super Admin user - Other entries will be created via member signup or via super admin from add administrator screen.</t>
-  </si>
-  <si>
-    <t>Entries can be Member, Admin or  Super Admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description </t>
-  </si>
-  <si>
-    <t>What this role usage is one can write here.</t>
-  </si>
-  <si>
-    <t>CreatedDate</t>
-  </si>
-  <si>
-    <t>Date and time when system has created a record.</t>
-  </si>
-  <si>
-    <t>CreatedBy</t>
-  </si>
-  <si>
-    <t>UserID who has created this record. Super Admin ID you can insert static.</t>
-  </si>
-  <si>
-    <t>ModifiedDate</t>
-  </si>
-  <si>
-    <t>Date and time when system has updated a record.</t>
-  </si>
-  <si>
-    <t>ModifiedBy</t>
-  </si>
-  <si>
-    <t>UserID who has updated this record. Super Admin ID you can insert static.</t>
-  </si>
-  <si>
-    <t>IsActive</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>Required information , Default set to true</t>
+      <t xml:space="preserve"> :- Users</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FOREIGN KEY </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Users </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">table || UserID who has created this record. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FOREING KEY </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Users </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">table || UserID who updates this record. </t>
+    </r>
+  </si>
+  <si>
+    <t>Entries can be Male, Female or  Other</t>
+  </si>
+  <si>
+    <t>Date Only</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FOREIGN KEY </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Users</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> table.</t>
+    </r>
+  </si>
+  <si>
+    <t>Basic Information of Users</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FOREIGN KEY </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Category</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> table.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FOREIGN KEY </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> table.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FOREIGN KEY </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Country</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> table.</t>
+    </r>
+  </si>
+  <si>
+    <t>Note title Unique</t>
+  </si>
+  <si>
+    <t>Value is url where pdf store in server.</t>
+  </si>
+  <si>
+    <t>Number of pages in pdf.</t>
+  </si>
+  <si>
+    <t>Image for note</t>
+  </si>
+  <si>
+    <t>Entries can be In Review, Published or  Rejected</t>
+  </si>
+  <si>
+    <t>Date and time when system has created a record. || published date</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FOREIGN KEY </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Notes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> table.</t>
+    </r>
+  </si>
+  <si>
+    <t>Ratings between 1 to 5</t>
+  </si>
+  <si>
+    <t>Write Reviews Text for this Note.</t>
+  </si>
+  <si>
+    <t>IsApproved</t>
+  </si>
+  <si>
+    <t>(0 &gt; Request or 1 &gt; Approved)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FOREIGN KEY </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Users </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>table || UserID who has created this record. (Downloader Id)</t>
+    </r>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Date for Request, Slod or Download</t>
+  </si>
+  <si>
+    <t>Remarks for Spam Reports</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FOREIGN KEY </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Users</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> table. || Admin Id who Approved this Note</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FOREIGN KEY </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Users </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">table || AdminID who has created this record. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FOREING KEY </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Users </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">table || AdminID who updates this record. </t>
+    </r>
+  </si>
+  <si>
+    <t>Basic Information of Notes</t>
+  </si>
+  <si>
+    <t>Data about Spam notes and Remarks</t>
+  </si>
+  <si>
+    <t>Data about Download, Sold or Requested notes and reviews / ratings for notes</t>
+  </si>
+  <si>
+    <t>Data about Rejected notes and Remarks form Admin</t>
+  </si>
+  <si>
+    <t>Data about Category and discription of it</t>
+  </si>
+  <si>
+    <t>Data about Type and discription of it</t>
+  </si>
+  <si>
+    <t>Data about Country and Countty Code</t>
   </si>
   <si>
     <r>
@@ -473,59 +926,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: - User_Roles</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>master table</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Over this table one can do three static entries i.e. for defining roles  :  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Member, Admin, Super Admin</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> as we do not have manage roles screen for scope entries can be 
-inserted via backend script.</t>
-    </r>
-  </si>
-  <si>
-    <t>Role_Id</t>
+      <t xml:space="preserve"> :- System Configuration</t>
+    </r>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Required information || Fiald Values</t>
   </si>
   <si>
     <r>
@@ -540,7 +948,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>User_Roles</t>
+      <t xml:space="preserve">Users </t>
     </r>
     <r>
       <rPr>
@@ -550,29 +958,40 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> table.</t>
-    </r>
-  </si>
-  <si>
-    <t>Required information</t>
-  </si>
-  <si>
-    <t>Required information || Unique value</t>
-  </si>
-  <si>
-    <t>IsEmailVerified</t>
-  </si>
-  <si>
-    <t>Required information || Default set to false</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User Image </t>
-  </si>
-  <si>
-    <t>Required information || Default set to true</t>
-  </si>
-  <si>
-    <t>User Phone Number</t>
+      <t xml:space="preserve">table || Super AdminID who has created this record. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FOREING KEY </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Users </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">table || Super AdminID who updates this record. </t>
+    </r>
+  </si>
+  <si>
+    <t>Only Super Admin can change this system values</t>
+  </si>
+  <si>
+    <t>Required information || Fiald Names (support email id, default img, etc.)</t>
   </si>
   <si>
     <r>
@@ -596,363 +1015,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> :- Users</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">FOREIGN KEY </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Users </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">table || UserID who has created this record. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">FOREING KEY </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Users </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">table || UserID who updates this record. </t>
-    </r>
-  </si>
-  <si>
-    <t>Entries can be Male, Female or  Other</t>
-  </si>
-  <si>
-    <t>Date Only</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">FOREIGN KEY </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Users</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> table.</t>
-    </r>
-  </si>
-  <si>
-    <t>Basic Information of Users</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">FOREIGN KEY </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Category</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> table.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">FOREIGN KEY </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> table.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">FOREIGN KEY </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Country</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> table.</t>
-    </r>
-  </si>
-  <si>
-    <t>Note title Unique</t>
-  </si>
-  <si>
-    <t>Value is url where pdf store in server.</t>
-  </si>
-  <si>
-    <t>Number of pages in pdf.</t>
-  </si>
-  <si>
-    <t>Image for note</t>
-  </si>
-  <si>
-    <t>Entries can be In Review, Published or  Rejected</t>
-  </si>
-  <si>
-    <t>Date and time when system has created a record. || published date</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">FOREIGN KEY </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Notes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> table.</t>
-    </r>
-  </si>
-  <si>
-    <t>Ratings between 1 to 5</t>
-  </si>
-  <si>
-    <t>Write Reviews Text for this Note.</t>
-  </si>
-  <si>
-    <t>IsApproved</t>
-  </si>
-  <si>
-    <t>(0 &gt; Request or 1 &gt; Approved)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">FOREIGN KEY </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Users </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>table || UserID who has created this record. (Downloader Id)</t>
-    </r>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Date for Request, Slod or Download</t>
-  </si>
-  <si>
-    <t>Remarks for Spam Reports</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">FOREIGN KEY </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Users</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> table. || Admin Id who Approved this Note</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">FOREIGN KEY </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Users </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">table || AdminID who has created this record. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">FOREING KEY </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Users </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">table || AdminID who updates this record. </t>
-    </r>
-  </si>
-  <si>
-    <t>Basic Information of Notes</t>
-  </si>
-  <si>
-    <t>Data about Spam notes and Remarks</t>
-  </si>
-  <si>
-    <t>Data about Download, Sold or Requested notes and reviews / ratings for notes</t>
-  </si>
-  <si>
-    <t>Data about Rejected notes and Remarks form Admin</t>
-  </si>
-  <si>
-    <t>Data about Category and discription of it</t>
-  </si>
-  <si>
-    <t>Data about Type and discription of it</t>
-  </si>
-  <si>
-    <t>Data about Country and Countty Code</t>
+      <t xml:space="preserve"> :- Download_Notes</t>
+    </r>
   </si>
   <si>
     <r>
@@ -976,72 +1040,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> :- System Configuration</t>
-    </r>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Required information || Fiald Values</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">FOREIGN KEY </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Users </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">table || Super AdminID who has created this record. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">FOREING KEY </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Users </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">table || Super AdminID who updates this record. </t>
-    </r>
-  </si>
-  <si>
-    <t>Only Super Admin can change this system values</t>
-  </si>
-  <si>
-    <t>Required information || Fiald Names (support email id, default img, etc.)</t>
+      <t xml:space="preserve"> :- Rejected_Notes</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2084,8 +2084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9ED7CB-098E-44F6-8575-8FB33451E301}">
   <dimension ref="A1:G168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="F161" sqref="F161"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2129,7 +2129,7 @@
     <row r="4" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="61" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C4" s="62"/>
       <c r="D4" s="62"/>
@@ -2139,7 +2139,7 @@
     </row>
     <row r="5" spans="1:7" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="64" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C5" s="65"/>
       <c r="D5" s="65"/>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C8" s="31" t="s">
         <v>11</v>
@@ -2195,13 +2195,13 @@
         <v>8</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C9" s="31" t="s">
         <v>11</v>
@@ -2213,13 +2213,13 @@
         <v>16</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" s="28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C10" s="31" t="s">
         <v>15</v>
@@ -2229,13 +2229,13 @@
         <v>16</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C11" s="31" t="s">
         <v>7</v>
@@ -2245,13 +2245,13 @@
         <v>16</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C12" s="31" t="s">
         <v>15</v>
@@ -2261,13 +2261,13 @@
         <v>16</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" s="28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C13" s="31" t="s">
         <v>7</v>
@@ -2277,23 +2277,23 @@
         <v>16</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="32" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -2303,7 +2303,7 @@
     <row r="16" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="58" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C16" s="59"/>
       <c r="D16" s="59"/>
@@ -2314,7 +2314,7 @@
     <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="52" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C17" s="53"/>
       <c r="D17" s="53"/>
@@ -2361,7 +2361,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>7</v>
@@ -2371,7 +2371,7 @@
         <v>8</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -2390,7 +2390,7 @@
         <v>8</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -2409,7 +2409,7 @@
         <v>8</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -2428,7 +2428,7 @@
         <v>8</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -2447,31 +2447,31 @@
         <v>8</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="14" t="s">
         <v>8</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>11</v>
@@ -2483,7 +2483,7 @@
         <v>16</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G26" s="1"/>
     </row>
@@ -2500,7 +2500,7 @@
         <v>16</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G27" s="1"/>
     </row>
@@ -2519,14 +2519,14 @@
         <v>16</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C29" s="31" t="s">
         <v>15</v>
@@ -2536,14 +2536,14 @@
         <v>16</v>
       </c>
       <c r="F29" s="37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C30" s="31" t="s">
         <v>7</v>
@@ -2553,14 +2553,14 @@
         <v>16</v>
       </c>
       <c r="F30" s="43" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C31" s="31" t="s">
         <v>15</v>
@@ -2570,14 +2570,14 @@
         <v>16</v>
       </c>
       <c r="F31" s="37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C32" s="31" t="s">
         <v>7</v>
@@ -2587,24 +2587,24 @@
         <v>16</v>
       </c>
       <c r="F32" s="37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D33" s="35"/>
       <c r="E33" s="32" t="s">
         <v>8</v>
       </c>
       <c r="F33" s="38" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G33" s="1"/>
     </row>
@@ -2620,7 +2620,7 @@
     <row r="35" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="58" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C35" s="59"/>
       <c r="D35" s="59"/>
@@ -2631,7 +2631,7 @@
     <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="52" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C36" s="53"/>
       <c r="D36" s="53"/>
@@ -2688,7 +2688,7 @@
         <v>8</v>
       </c>
       <c r="F39" s="37" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G39" s="1"/>
     </row>
@@ -2698,14 +2698,14 @@
         <v>14</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D40" s="15"/>
       <c r="E40" s="14" t="s">
         <v>16</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G40" s="1"/>
     </row>
@@ -2724,7 +2724,7 @@
         <v>16</v>
       </c>
       <c r="F41" s="37" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G41" s="1"/>
     </row>
@@ -2743,7 +2743,7 @@
         <v>8</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G42" s="1"/>
     </row>
@@ -2762,7 +2762,7 @@
         <v>8</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G43" s="1"/>
     </row>
@@ -2781,7 +2781,7 @@
         <v>8</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G44" s="1"/>
     </row>
@@ -2800,7 +2800,7 @@
         <v>8</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G45" s="1"/>
     </row>
@@ -2819,7 +2819,7 @@
         <v>8</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G46" s="1"/>
     </row>
@@ -2838,7 +2838,7 @@
         <v>8</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G47" s="1"/>
     </row>
@@ -2879,7 +2879,7 @@
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="45" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C50" s="46" t="s">
         <v>15</v>
@@ -2889,14 +2889,14 @@
         <v>16</v>
       </c>
       <c r="F50" s="48" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C51" s="31" t="s">
         <v>7</v>
@@ -2906,14 +2906,14 @@
         <v>16</v>
       </c>
       <c r="F51" s="43" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C52" s="31" t="s">
         <v>15</v>
@@ -2923,14 +2923,14 @@
         <v>16</v>
       </c>
       <c r="F52" s="37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C53" s="31" t="s">
         <v>7</v>
@@ -2940,24 +2940,24 @@
         <v>16</v>
       </c>
       <c r="F53" s="37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D54" s="35"/>
       <c r="E54" s="32" t="s">
         <v>8</v>
       </c>
       <c r="F54" s="38" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G54" s="1"/>
     </row>
@@ -2973,7 +2973,7 @@
     <row r="56" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C56" s="18"/>
       <c r="D56" s="18"/>
@@ -2984,7 +2984,7 @@
     <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="52" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C57" s="53"/>
       <c r="D57" s="53"/>
@@ -3043,7 +3043,7 @@
         <v>8</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G60" s="1"/>
     </row>
@@ -3060,7 +3060,7 @@
         <v>8</v>
       </c>
       <c r="F61" s="37" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G61" s="1"/>
     </row>
@@ -3079,7 +3079,7 @@
         <v>16</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G62" s="1"/>
     </row>
@@ -3098,7 +3098,7 @@
         <v>8</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G63" s="1"/>
     </row>
@@ -3115,7 +3115,7 @@
         <v>16</v>
       </c>
       <c r="F64" s="37" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G64" s="1"/>
     </row>
@@ -3132,7 +3132,7 @@
         <v>16</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G65" s="1"/>
     </row>
@@ -3151,7 +3151,7 @@
         <v>8</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G66" s="1"/>
     </row>
@@ -3168,7 +3168,7 @@
         <v>16</v>
       </c>
       <c r="F67" s="37" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G67" s="1"/>
     </row>
@@ -3272,7 +3272,7 @@
         <v>8</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G73" s="1"/>
     </row>
@@ -3291,7 +3291,7 @@
         <v>16</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G74" s="1"/>
     </row>
@@ -3310,7 +3310,7 @@
         <v>8</v>
       </c>
       <c r="F75" s="37" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G75" s="1"/>
     </row>
@@ -3327,7 +3327,7 @@
         <v>16</v>
       </c>
       <c r="F76" s="37" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G76" s="1"/>
     </row>
@@ -3344,14 +3344,14 @@
         <v>16</v>
       </c>
       <c r="F77" s="48" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="45" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C78" s="46" t="s">
         <v>15</v>
@@ -3361,14 +3361,14 @@
         <v>16</v>
       </c>
       <c r="F78" s="48" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C79" s="31" t="s">
         <v>7</v>
@@ -3378,14 +3378,14 @@
         <v>16</v>
       </c>
       <c r="F79" s="43" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C80" s="31" t="s">
         <v>15</v>
@@ -3395,14 +3395,14 @@
         <v>16</v>
       </c>
       <c r="F80" s="37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C81" s="31" t="s">
         <v>7</v>
@@ -3412,24 +3412,24 @@
         <v>16</v>
       </c>
       <c r="F81" s="37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C82" s="32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D82" s="35"/>
       <c r="E82" s="32" t="s">
         <v>8</v>
       </c>
       <c r="F82" s="38" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G82" s="1"/>
     </row>
@@ -3445,7 +3445,7 @@
     <row r="84" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="2" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -3456,7 +3456,7 @@
     <row r="85" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
       <c r="B85" s="52" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C85" s="53"/>
       <c r="D85" s="53"/>
@@ -3513,7 +3513,7 @@
         <v>8</v>
       </c>
       <c r="F88" s="37" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G88" s="1"/>
     </row>
@@ -3530,14 +3530,14 @@
         <v>8</v>
       </c>
       <c r="F89" s="37" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="49" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C90" s="50" t="s">
         <v>15</v>
@@ -3547,31 +3547,31 @@
         <v>8</v>
       </c>
       <c r="F90" s="51" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D91" s="22"/>
       <c r="E91" s="21" t="s">
         <v>8</v>
       </c>
       <c r="F91" s="23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G91" s="1"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C92" s="14" t="s">
         <v>7</v>
@@ -3581,14 +3581,14 @@
         <v>16</v>
       </c>
       <c r="F92" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G92" s="1"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C93" s="14" t="s">
         <v>11</v>
@@ -3600,14 +3600,14 @@
         <v>16</v>
       </c>
       <c r="F93" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G93" s="1"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="45" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C94" s="46" t="s">
         <v>15</v>
@@ -3617,14 +3617,14 @@
         <v>16</v>
       </c>
       <c r="F94" s="48" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G94" s="1"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C95" s="31" t="s">
         <v>7</v>
@@ -3634,14 +3634,14 @@
         <v>16</v>
       </c>
       <c r="F95" s="43" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G95" s="1"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C96" s="31" t="s">
         <v>15</v>
@@ -3651,14 +3651,14 @@
         <v>16</v>
       </c>
       <c r="F96" s="37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G96" s="1"/>
     </row>
     <row r="97" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1"/>
       <c r="B97" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C97" s="32" t="s">
         <v>7</v>
@@ -3668,7 +3668,7 @@
         <v>16</v>
       </c>
       <c r="F97" s="38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G97" s="1"/>
     </row>
@@ -3684,7 +3684,7 @@
     <row r="99" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1"/>
       <c r="B99" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -3695,7 +3695,7 @@
     <row r="100" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1"/>
       <c r="B100" s="52" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C100" s="53"/>
       <c r="D100" s="53"/>
@@ -3752,14 +3752,14 @@
         <v>8</v>
       </c>
       <c r="F103" s="37" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G103" s="1"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C104" s="14" t="s">
         <v>11</v>
@@ -3771,14 +3771,14 @@
         <v>8</v>
       </c>
       <c r="F104" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G104" s="1"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="45" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C105" s="46" t="s">
         <v>15</v>
@@ -3788,14 +3788,14 @@
         <v>16</v>
       </c>
       <c r="F105" s="48" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G105" s="1"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C106" s="31" t="s">
         <v>7</v>
@@ -3805,14 +3805,14 @@
         <v>16</v>
       </c>
       <c r="F106" s="43" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G106" s="1"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C107" s="31" t="s">
         <v>15</v>
@@ -3822,14 +3822,14 @@
         <v>16</v>
       </c>
       <c r="F107" s="37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G107" s="1"/>
     </row>
     <row r="108" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1"/>
       <c r="B108" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C108" s="32" t="s">
         <v>7</v>
@@ -3839,7 +3839,7 @@
         <v>16</v>
       </c>
       <c r="F108" s="38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G108" s="1"/>
     </row>
@@ -3855,7 +3855,7 @@
     <row r="110" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1"/>
       <c r="B110" s="2" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -3866,7 +3866,7 @@
     <row r="111" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1"/>
       <c r="B111" s="52" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C111" s="53"/>
       <c r="D111" s="53"/>
@@ -3923,14 +3923,14 @@
         <v>8</v>
       </c>
       <c r="F114" s="37" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G114" s="1"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C115" s="14" t="s">
         <v>11</v>
@@ -3942,14 +3942,14 @@
         <v>8</v>
       </c>
       <c r="F115" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G115" s="1"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="45" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C116" s="46" t="s">
         <v>15</v>
@@ -3959,14 +3959,14 @@
         <v>16</v>
       </c>
       <c r="F116" s="48" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G116" s="1"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C117" s="31" t="s">
         <v>7</v>
@@ -3976,14 +3976,14 @@
         <v>16</v>
       </c>
       <c r="F117" s="43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G117" s="1"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C118" s="31" t="s">
         <v>15</v>
@@ -3993,14 +3993,14 @@
         <v>16</v>
       </c>
       <c r="F118" s="37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G118" s="1"/>
     </row>
     <row r="119" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1"/>
       <c r="B119" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C119" s="32" t="s">
         <v>7</v>
@@ -4010,7 +4010,7 @@
         <v>16</v>
       </c>
       <c r="F119" s="38" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G119" s="1"/>
     </row>
@@ -4026,7 +4026,7 @@
     <row r="121" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="1"/>
       <c r="B121" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
@@ -4037,7 +4037,7 @@
     <row r="122" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="1"/>
       <c r="B122" s="52" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C122" s="53"/>
       <c r="D122" s="53"/>
@@ -4084,7 +4084,7 @@
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C125" s="14" t="s">
         <v>11</v>
@@ -4096,7 +4096,7 @@
         <v>8</v>
       </c>
       <c r="F125" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G125" s="1"/>
     </row>
@@ -4115,14 +4115,14 @@
         <v>8</v>
       </c>
       <c r="F126" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G126" s="1"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="45" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C127" s="46" t="s">
         <v>15</v>
@@ -4132,14 +4132,14 @@
         <v>16</v>
       </c>
       <c r="F127" s="48" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G127" s="1"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C128" s="31" t="s">
         <v>7</v>
@@ -4149,14 +4149,14 @@
         <v>16</v>
       </c>
       <c r="F128" s="43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G128" s="1"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C129" s="31" t="s">
         <v>15</v>
@@ -4166,14 +4166,14 @@
         <v>16</v>
       </c>
       <c r="F129" s="37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G129" s="1"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C130" s="31" t="s">
         <v>7</v>
@@ -4183,24 +4183,24 @@
         <v>16</v>
       </c>
       <c r="F130" s="37" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G130" s="1"/>
     </row>
     <row r="131" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1"/>
       <c r="B131" s="29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C131" s="32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D131" s="35"/>
       <c r="E131" s="32" t="s">
         <v>8</v>
       </c>
       <c r="F131" s="38" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G131" s="1"/>
     </row>
@@ -4216,7 +4216,7 @@
     <row r="133" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1"/>
       <c r="B133" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
@@ -4226,7 +4226,7 @@
     <row r="134" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1"/>
       <c r="B134" s="52" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C134" s="53"/>
       <c r="D134" s="53"/>
@@ -4272,7 +4272,7 @@
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C137" s="14" t="s">
         <v>11</v>
@@ -4284,7 +4284,7 @@
         <v>8</v>
       </c>
       <c r="F137" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G137" s="1"/>
     </row>
@@ -4303,14 +4303,14 @@
         <v>8</v>
       </c>
       <c r="F138" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G138" s="1"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="45" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C139" s="46" t="s">
         <v>15</v>
@@ -4320,14 +4320,14 @@
         <v>16</v>
       </c>
       <c r="F139" s="48" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G139" s="1"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C140" s="31" t="s">
         <v>7</v>
@@ -4337,14 +4337,14 @@
         <v>16</v>
       </c>
       <c r="F140" s="43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G140" s="1"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C141" s="31" t="s">
         <v>15</v>
@@ -4354,14 +4354,14 @@
         <v>16</v>
       </c>
       <c r="F141" s="37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G141" s="1"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C142" s="31" t="s">
         <v>7</v>
@@ -4371,24 +4371,24 @@
         <v>16</v>
       </c>
       <c r="F142" s="37" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G142" s="1"/>
     </row>
     <row r="143" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="1"/>
       <c r="B143" s="29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C143" s="32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D143" s="35"/>
       <c r="E143" s="32" t="s">
         <v>8</v>
       </c>
       <c r="F143" s="38" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G143" s="1"/>
     </row>
@@ -4403,7 +4403,7 @@
     <row r="145" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="1"/>
       <c r="B145" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
@@ -4413,7 +4413,7 @@
     <row r="146" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="1"/>
       <c r="B146" s="52" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C146" s="53"/>
       <c r="D146" s="53"/>
@@ -4458,7 +4458,7 @@
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="B149" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C149" s="14" t="s">
         <v>11</v>
@@ -4470,13 +4470,13 @@
         <v>8</v>
       </c>
       <c r="F149" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C150" s="14" t="s">
         <v>45</v>
@@ -4486,13 +4486,13 @@
         <v>8</v>
       </c>
       <c r="F150" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" s="45" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C151" s="46" t="s">
         <v>15</v>
@@ -4502,14 +4502,14 @@
         <v>16</v>
       </c>
       <c r="F151" s="48" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G151" s="1"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C152" s="31" t="s">
         <v>7</v>
@@ -4519,14 +4519,14 @@
         <v>16</v>
       </c>
       <c r="F152" s="43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G152" s="1"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" s="28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C153" s="31" t="s">
         <v>15</v>
@@ -4536,14 +4536,14 @@
         <v>16</v>
       </c>
       <c r="F153" s="37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G153" s="1"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="B154" s="28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C154" s="31" t="s">
         <v>7</v>
@@ -4553,24 +4553,24 @@
         <v>16</v>
       </c>
       <c r="F154" s="37" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G154" s="1"/>
     </row>
     <row r="155" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="1"/>
       <c r="B155" s="29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C155" s="32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D155" s="35"/>
       <c r="E155" s="32" t="s">
         <v>8</v>
       </c>
       <c r="F155" s="38" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G155" s="1"/>
     </row>
@@ -4585,7 +4585,7 @@
     <row r="157" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="1"/>
       <c r="B157" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
@@ -4595,7 +4595,7 @@
     <row r="158" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="1"/>
       <c r="B158" s="52" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C158" s="53"/>
       <c r="D158" s="53"/>
@@ -4640,7 +4640,7 @@
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C161" s="14" t="s">
         <v>11</v>
@@ -4652,13 +4652,13 @@
         <v>8</v>
       </c>
       <c r="F161" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C162" s="14" t="s">
         <v>11</v>
@@ -4670,13 +4670,13 @@
         <v>8</v>
       </c>
       <c r="F162" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="45" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C163" s="46" t="s">
         <v>15</v>
@@ -4686,14 +4686,14 @@
         <v>16</v>
       </c>
       <c r="F163" s="48" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G163" s="1"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C164" s="31" t="s">
         <v>7</v>
@@ -4703,14 +4703,14 @@
         <v>16</v>
       </c>
       <c r="F164" s="43" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G164" s="1"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="B165" s="28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C165" s="31" t="s">
         <v>15</v>
@@ -4720,14 +4720,14 @@
         <v>16</v>
       </c>
       <c r="F165" s="37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G165" s="1"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
       <c r="B166" s="28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C166" s="31" t="s">
         <v>7</v>
@@ -4737,24 +4737,24 @@
         <v>16</v>
       </c>
       <c r="F166" s="37" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G166" s="1"/>
     </row>
     <row r="167" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1"/>
       <c r="B167" s="29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C167" s="32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D167" s="35"/>
       <c r="E167" s="32" t="s">
         <v>8</v>
       </c>
       <c r="F167" s="38" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G167" s="1"/>
     </row>
